--- a/SNAILS_Artifacts/naturalness_modified_identifiers/SNAILS_schema_crosswalks/PacificIslandLandbirds-consolidated-xwalk.xlsx
+++ b/SNAILS_Artifacts/naturalness_modified_identifiers/SNAILS_schema_crosswalks/PacificIslandLandbirds-consolidated-xwalk.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>native_identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>table_or_column</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>source_database</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>table_or_column</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>native_identifier</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>native_naturalness</t>
@@ -467,18 +467,13 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>N3_identifier</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>N4_identifier</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>~TMPCLP650861</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,30 +483,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>~TMPCLP650861</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>~TMPCLP650861</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>~TMPCLP650861</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>~TMPCLP650861</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>~TMPCLP650861</t>
         </is>
@@ -520,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Acc_Notes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,39 +520,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Accuracy_Notes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Acc_Notes</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Accuracy_Notes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acc_Notes</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Ac_Nts</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Accuracy_Notes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -572,19 +557,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Addrs</t>
@@ -593,18 +578,13 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>Adr</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Address</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Address_Type</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -614,19 +594,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Address_Type</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Address_Type</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Addrs_typ</t>
@@ -635,18 +615,13 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>Adr_t</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Address_Type</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Address2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -656,19 +631,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Address2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Address2</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Addrs2</t>
@@ -677,18 +652,13 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>Adr2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Address2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Alternate_Name</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -698,19 +668,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Alternate_Name</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Alternate_Name</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>AltName</t>
@@ -719,18 +689,13 @@
       <c r="G7" t="inlineStr">
         <is>
           <t>AltNm</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Alternate_Name</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Alternate_Type</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -740,19 +705,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Alternate_Type</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Alternate_Type</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>AltType</t>
@@ -761,18 +726,13 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>AltTp</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Alternate_Type</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Aspect</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -782,19 +742,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Aspect</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Aspect</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Aspct</t>
@@ -803,18 +763,13 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>Asp</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Aspect</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Aspect_Var</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -824,39 +779,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aspect_Variance</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Aspect_Var</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Aspect_Variance</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Aspect_Var</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Asp_v</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Aspect_Variance</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>BNA_Account</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -866,39 +816,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BirdsNorthAmerica_Account</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BrdNrthAmer_Account</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>BNA_Account</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BirdsNorthAmerica_Account</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>BrdNrthAmer_Account</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>BNA_Account</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>BirdsNorthAmerica_Account</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Canopy_Comp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -908,19 +853,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Canopy_Comp</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Canopy_Comp</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Canp_Comp</t>
@@ -929,18 +874,13 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>Cn_Cmp</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Canopy_Comp</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Canopy_Cover</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -950,19 +890,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Canopy_Cover</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Canopy_Cover</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Canp_Cvr</t>
@@ -971,18 +911,13 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>Cn_Cv</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Canopy_Cover</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Canopy_Height</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -992,19 +927,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Canopy_Height</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Canopy_Height</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Canp_ht</t>
@@ -1013,18 +948,13 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>Cn_Ht</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Canopy_Height</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Ceritified_Data_Update</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1034,19 +964,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Ceritified_Data_Update</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Ceritified_Data_Update</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Certified_Data_Upd</t>
@@ -1055,18 +985,13 @@
       <c r="G15" t="inlineStr">
         <is>
           <t>C_Dt_U</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Ceritified_Data_Update</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Certified</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1076,19 +1001,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Certified</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Certified</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Certifd</t>
@@ -1097,18 +1022,13 @@
       <c r="G16" t="inlineStr">
         <is>
           <t>crt</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Certified</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Certified_by</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1118,19 +1038,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Certified_by</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Certified_by</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Certif_by</t>
@@ -1139,18 +1059,13 @@
       <c r="G17" t="inlineStr">
         <is>
           <t>crt_by</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Certified_by</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Certified_date</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1160,19 +1075,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Certified_date</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Certified_date</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>Certif_dt</t>
@@ -1181,18 +1096,13 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>crt_dt</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Certified_date</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>City</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1202,19 +1112,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>City</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Cty</t>
@@ -1223,18 +1133,13 @@
       <c r="G19" t="inlineStr">
         <is>
           <t>cy</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>City</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Cloud</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1244,19 +1149,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Cloud</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Clou</t>
@@ -1265,18 +1170,13 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>cl</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Cloud</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Common_Name</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1286,19 +1186,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Common_Name</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Common_Name</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Cmn_Nam</t>
@@ -1307,18 +1207,13 @@
       <c r="G21" t="inlineStr">
         <is>
           <t>Cm_Nm</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Common_Name</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Contact_ID</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1328,19 +1223,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Contact_ID</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Contact_ID</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Cont_ID</t>
@@ -1349,18 +1244,13 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>C_ID</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Contact_ID</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Contact_Notes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1370,19 +1260,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Contact_Notes</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Contact_Notes</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Cont_Notes</t>
@@ -1391,18 +1281,13 @@
       <c r="G23" t="inlineStr">
         <is>
           <t>C_Nts</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Contact_Notes</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Contact_Role</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1412,19 +1297,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Contact_Role</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Contact_Role</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>Cont_Role</t>
@@ -1433,18 +1318,13 @@
       <c r="G24" t="inlineStr">
         <is>
           <t>C_R</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Contact_Role</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Coord_Syst</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1454,39 +1334,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Coordinate_System</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Coord_Syst</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Coordinate_System</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Coord_Syst</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>Co_Sys</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Coordinate_System</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Coord_Units</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1496,39 +1371,34 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Coordinate_Unites</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>Coord_Units</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Coordinate_Unites</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Coord_Units</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>Co_Unt</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Coordinate_Unites</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Coord_upd</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1538,39 +1408,34 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Coordinate_Update</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>Coord_upd</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Coordinate_Update</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Coord_upd</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>Co_up</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Coordinate_Update</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1580,19 +1445,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>Cnty</t>
@@ -1601,18 +1466,13 @@
       <c r="G28" t="inlineStr">
         <is>
           <t>Cty</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Country</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Datum</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1622,19 +1482,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>Datm</t>
@@ -1643,18 +1503,13 @@
       <c r="G29" t="inlineStr">
         <is>
           <t>Dt</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Datum</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>DB_Meta_ID</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1664,39 +1519,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DataBase_Meta_ID</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>DB_Meta_ID</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>DataBase_Meta_ID</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>DB_Meta_ID</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>Dm_ID</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>DataBase_Meta_ID</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1706,19 +1556,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>definition</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>definition</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Defntn</t>
@@ -1727,18 +1577,13 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>Dfn</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>definition</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Density_ID</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1748,19 +1593,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Density_ID</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Density_ID</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>Dens_ID</t>
@@ -1769,18 +1614,13 @@
       <c r="G32" t="inlineStr">
         <is>
           <t>Dst_ID</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Density_ID</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Detection</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1790,19 +1630,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Detection</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Detection</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>Detctn</t>
@@ -1811,18 +1651,13 @@
       <c r="G33" t="inlineStr">
         <is>
           <t>Det</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Detection</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Detection_ID</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1832,19 +1667,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Detection_ID</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Detection_ID</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>Det_ID</t>
@@ -1853,18 +1688,13 @@
       <c r="G34" t="inlineStr">
         <is>
           <t>Dt_ID</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Detection_ID</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>diagram_id</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1874,19 +1704,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>diagram_id</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>diagram_id</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>diag_ID</t>
@@ -1895,18 +1725,13 @@
       <c r="G35" t="inlineStr">
         <is>
           <t>D_ID</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>diagram_id</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Distance</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1916,19 +1741,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Distance</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Distance</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>Distnc</t>
@@ -1937,18 +1762,13 @@
       <c r="G36" t="inlineStr">
         <is>
           <t>Dst</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Distance</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Email_Address</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1958,19 +1778,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Email_Address</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Email_Address</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Email_Addrs</t>
@@ -1979,18 +1799,13 @@
       <c r="G37" t="inlineStr">
         <is>
           <t>E_Adr</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Email_Address</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>End_Time</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2000,19 +1815,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>End_Time</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>End_Time</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>End_Tm</t>
@@ -2021,18 +1836,13 @@
       <c r="G38" t="inlineStr">
         <is>
           <t>E_T</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>End_Time</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Entered_by</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2042,19 +1852,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Entered_by</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Entered_by</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Enrtd_bdy</t>
@@ -2063,18 +1873,13 @@
       <c r="G39" t="inlineStr">
         <is>
           <t>E_By</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Entered_by</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Entered_date</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2084,19 +1889,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Entered_date</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Entered_date</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>Entrd_dt</t>
@@ -2105,18 +1910,13 @@
       <c r="G40" t="inlineStr">
         <is>
           <t>E_dt</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Entered_date</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Enum_Code</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2126,39 +1926,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Enumeration_Code</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>Enum_Code</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Enumeration_Code</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Enum_Code</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>E_code</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Enumeration_Code</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Enum_Description</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2168,39 +1963,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Enumeration_Description</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>Enum_Description</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Enumeration_Description</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Enum_Description</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>E_des</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Enumeration_Description</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Enum_Group</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2210,39 +2000,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Enumeration_Group</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>Enum_Group</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Enumeration_Group</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Enum_Group</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>E_G</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Enumeration_Group</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Est_H_Error</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2252,39 +2037,34 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Estimated_Horizontal_Error</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Est_Horiz_Error</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Est_H_Error</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Estimated_Horizontal_Error</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Est_Horiz_Error</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Est_H_Error</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Estimated_Horizontal_Error</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Event_Details_ID</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2294,19 +2074,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Event_Details_ID</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Event_Details_ID</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Evnt_Det_ID</t>
@@ -2315,18 +2095,13 @@
       <c r="G45" t="inlineStr">
         <is>
           <t>Ev_dt_ID</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Event_Details_ID</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Event_ID</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2336,19 +2111,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Event_ID</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Event_ID</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>Evnt_ID</t>
@@ -2357,18 +2132,13 @@
       <c r="G46" t="inlineStr">
         <is>
           <t>Ev_ID</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Event_ID</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Event_Notes</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2378,19 +2148,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Event_Notes</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Event_Notes</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>Evnt_Notes</t>
@@ -2399,18 +2169,13 @@
       <c r="G47" t="inlineStr">
         <is>
           <t>Ev_nt</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Event_Notes</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Family</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2420,19 +2185,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Family</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Family</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>Fam</t>
@@ -2441,18 +2206,13 @@
       <c r="G48" t="inlineStr">
         <is>
           <t>fm</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Family</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>First_Name</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2462,19 +2222,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>First_Name</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>First_Name</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>F_Name</t>
@@ -2483,18 +2243,13 @@
       <c r="G49" t="inlineStr">
         <is>
           <t>F_Nm</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>First_Name</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Geo_Datum</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2504,39 +2259,34 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Geographic_Datum</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>Geo_Datum</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Geographic_Datum</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Geo_Datum</t>
-        </is>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>G_Dtm</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Geographic_Datum</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Gust</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2546,19 +2296,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Gust</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Gust</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>Gst</t>
@@ -2567,18 +2317,13 @@
       <c r="G51" t="inlineStr">
         <is>
           <t>G</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Gust</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Habitat</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2588,19 +2333,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>Hbts</t>
@@ -2609,18 +2354,13 @@
       <c r="G52" t="inlineStr">
         <is>
           <t>Hb</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Habitat</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Habitat_Date</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2630,19 +2370,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>Habitat_Date</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Habitat_Date</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>Habitat_dt</t>
@@ -2651,18 +2391,13 @@
       <c r="G53" t="inlineStr">
         <is>
           <t>Hab_dt</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Habitat_Date</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Habitat_ID</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2672,19 +2407,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Habitat_ID</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Habitat_ID</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>Habt_ID</t>
@@ -2693,18 +2428,13 @@
       <c r="G54" t="inlineStr">
         <is>
           <t>Hb_ID</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Habitat_ID</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Half_meter</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2714,19 +2444,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Half_meter</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Half_meter</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>Hlf_mtr</t>
@@ -2735,18 +2465,13 @@
       <c r="G55" t="inlineStr">
         <is>
           <t>Hlf_M</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Half_meter</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>In_protocol</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2756,39 +2481,34 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>In_protocol</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>In_protocol</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>In_protocol</t>
-        </is>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>In_prtcl</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>In_protocol</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Island</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2798,19 +2518,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Island</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Island</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>Ilnd</t>
@@ -2819,18 +2539,13 @@
       <c r="G57" t="inlineStr">
         <is>
           <t>Isl</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Island</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Last_Name</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2840,19 +2555,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Last_Name</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Last_Name</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>L_Name</t>
@@ -2861,18 +2576,13 @@
       <c r="G58" t="inlineStr">
         <is>
           <t>L_Nm</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Last_Name</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Lat_Dir</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2882,39 +2592,34 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Latatitude_Direction</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>Lat_Dir</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Latatitude_Direction</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Lat_Dir</t>
-        </is>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>Lt_Dir</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Latatitude_Direction</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Lat_final</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2924,39 +2629,34 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Latitude_final</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>Lat_final</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Latitude_final</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Lat_final</t>
-        </is>
-      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>Lt_f</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Latitude_final</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Loc_Name</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2966,39 +2666,34 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Location_Name</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>Loc_Name</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Location_Name</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Loc_Name</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>Lc_Nm</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Location_Name</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Loc_Notes</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3008,39 +2703,34 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Location_Notes</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>Loc_Notes</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Location_Notes</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Loc_Notes</t>
-        </is>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>L_Nts</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Location_Notes</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Location_ID</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3050,19 +2740,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>Location_ID</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Location_ID</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>Loc_ID</t>
@@ -3071,18 +2761,13 @@
       <c r="G63" t="inlineStr">
         <is>
           <t>L_ID</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Location_ID</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Long_Dir</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3092,39 +2777,34 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Longitude_Dir</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>Long_Dir</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Longitude_Dir</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Long_Dir</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>Ln_Dir</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Longitude_Dir</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Long_final</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3134,39 +2814,34 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Longitude_final</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>Long_final</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Longitude_final</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Long_final</t>
-        </is>
-      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>Ln_final</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Longitude_final</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Middle_Init</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3176,19 +2851,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Middle_Init</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Middle_Init</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>M_Init</t>
@@ -3197,18 +2872,13 @@
       <c r="G66" t="inlineStr">
         <is>
           <t>M_In</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Middle_Init</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3218,19 +2888,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>nam</t>
@@ -3239,18 +2909,13 @@
       <c r="G67" t="inlineStr">
         <is>
           <t>nm</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>name</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Noted_Canopy_Spp_Common</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3260,39 +2925,34 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Noted_Canopy_Species_Common</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>Noted_Canopy_Spp_Common</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Noted_Canopy_Species_Common</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Noted_Canopy_Spp_Common</t>
-        </is>
-      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>Nt_Cn_Spp_Cmn</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Noted_Canopy_Species_Common</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Noted_Canopy_Spp_Scientific</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3302,39 +2962,34 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Noted_Canopy_Species_Scientific</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>Noted_Canopy_Spp_Scientific</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Noted_Canopy_Species_Scientific</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Noted_Canopy_Spp_Scientific</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>Nt_Cn_Spp_Sct</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Noted_Canopy_Species_Scientific</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Obs_Code</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3344,39 +2999,34 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Observation_Code</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>Obs_Code</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Observation_Code</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Obs_Code</t>
-        </is>
-      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>O_Cd</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Observation_Code</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Observation_ID</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3386,19 +3036,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Observation_ID</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Observation_ID</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>Obsrvn_ID</t>
@@ -3407,18 +3057,13 @@
       <c r="G71" t="inlineStr">
         <is>
           <t>Obs_ID</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Observation_ID</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>One_half_meter</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3428,19 +3073,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>One_half_meter</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>One_half_meter</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>One_hlf_mtr</t>
@@ -3449,18 +3094,13 @@
       <c r="G72" t="inlineStr">
         <is>
           <t>OneHlf_M</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>One_half_meter</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>One_meter</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3470,19 +3110,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>One_meter</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>One_meter</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>One_mtr</t>
@@ -3491,18 +3131,13 @@
       <c r="G73" t="inlineStr">
         <is>
           <t>One_M</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>One_meter</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Organization</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3512,19 +3147,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Organization</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>Orgnztn</t>
@@ -3533,18 +3168,13 @@
       <c r="G74" t="inlineStr">
         <is>
           <t>Org</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Organization</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Origin</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3554,19 +3184,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>Orign</t>
@@ -3575,18 +3205,13 @@
       <c r="G75" t="inlineStr">
         <is>
           <t>Orgn</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Origin</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3596,39 +3221,34 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Point1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Pnt1</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>P1</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Point1</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Pnt1</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Point1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3638,39 +3258,34 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Point10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Pnt10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>P10</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Point10</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Pnt10</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Point10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3680,39 +3295,34 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Point2</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Pnt2</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>P2</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Point2</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Pnt2</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Point2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3722,39 +3332,34 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Point3</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Pnt3</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>P3</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Point3</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Pnt3</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Point3</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3764,39 +3369,34 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Point4</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Pnt4</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>P4</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Point4</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Pnt4</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Point4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3806,39 +3406,34 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Point5</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Pnt5</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>P5</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Point5</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Pnt5</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Point5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3848,39 +3443,34 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Point6</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Pnt6</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>P6</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Point6</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Pnt6</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Point6</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3890,39 +3480,34 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Point7</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Pnt7</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>P7</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Point7</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Pnt7</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Point7</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3932,39 +3517,34 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Point8</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Pnt8</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>P8</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Point8</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Pnt8</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Point8</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3974,39 +3554,34 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Point9</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Pnt9</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>P9</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Point9</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Pnt9</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Point9</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Paved</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4016,19 +3591,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>Paved</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Paved</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>Pavd</t>
@@ -4037,18 +3612,13 @@
       <c r="G86" t="inlineStr">
         <is>
           <t>Pv</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Paved</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Plot_ID</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4058,19 +3628,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>Plot_ID</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Plot_ID</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>Plt_ID</t>
@@ -4079,18 +3649,13 @@
       <c r="G87" t="inlineStr">
         <is>
           <t>P_ID</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Plot_ID</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4100,39 +3665,34 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>Pool</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Pool</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Pool</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>Pl</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Pool</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Position_Title</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4142,19 +3702,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>Position_Title</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Position_Title</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>Posn_Title</t>
@@ -4163,18 +3723,13 @@
       <c r="G89" t="inlineStr">
         <is>
           <t>P_Titl</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Position_Title</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Previous_Lat</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4184,39 +3739,34 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Previous_Latitude</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>Previous_Lat</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Previous_Latitude</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Previous_Lat</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>Pv_Lt</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Previous_Latitude</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Previous_Long</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4226,39 +3776,34 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Previous_Longitude</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>Previous_Long</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Previous_Longitude</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Previous_Long</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>Pv_Ln</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Previous_Longitude</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>principal_id</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4268,19 +3813,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>principal_id</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>principal_id</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>prnc_ID</t>
@@ -4289,18 +3834,13 @@
       <c r="G92" t="inlineStr">
         <is>
           <t>p_id</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>principal_id</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Protocol_Name</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4310,39 +3850,34 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>Protocol_Name</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Protocol_Name</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Protocol_Name</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>Prot_nm</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Protocol_Name</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>QA_notes</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4352,39 +3887,34 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Quality_Assurance_Notes</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Qual_Assur_Notes</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>QA_notes</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Quality_Assurance_Notes</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Qual_Assur_Notes</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>QA_notes</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Quality_Assurance_Notes</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4394,19 +3924,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>Rain</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Rain</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>Rn</t>
@@ -4415,18 +3945,13 @@
       <c r="G95" t="inlineStr">
         <is>
           <t>R</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Rain</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Repeat_Sample</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4436,19 +3961,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>Repeat_Sample</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Repeat_Sample</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>Rep_Sample</t>
@@ -4457,18 +3982,13 @@
       <c r="G96" t="inlineStr">
         <is>
           <t>Rp_Smp</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Repeat_Sample</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Scientific_Name</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4478,19 +3998,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>Scientific_Name</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Scientific_Name</t>
-        </is>
-      </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>Sci_Name</t>
@@ -4499,18 +4019,13 @@
       <c r="G97" t="inlineStr">
         <is>
           <t>Sci_Nm</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Scientific_Name</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Site_Desc</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4520,39 +4035,34 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Site_Description</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>Site_Desc</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Site_Description</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Site_Desc</t>
-        </is>
-      </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>St_dscr</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Site_Description</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Site_ID</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4562,19 +4072,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>Site_ID</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Site_ID</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>Sit_ID</t>
@@ -4583,18 +4093,13 @@
       <c r="G99" t="inlineStr">
         <is>
           <t>St_ID</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Site_ID</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Site_Name</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4604,19 +4109,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>Site_Name</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Site_Name</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>Sit_Nam</t>
@@ -4625,18 +4130,13 @@
       <c r="G100" t="inlineStr">
         <is>
           <t>St_Nm</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Site_Name</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Site_Notes</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4646,19 +4146,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>Site_Notes</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Site_Notes</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>Sit_Not</t>
@@ -4667,18 +4167,13 @@
       <c r="G101" t="inlineStr">
         <is>
           <t>St_Nt</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Site_Notes</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Slope</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4688,19 +4183,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>Slope</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Slope</t>
-        </is>
-      </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>Slp</t>
@@ -4709,18 +4204,13 @@
       <c r="G102" t="inlineStr">
         <is>
           <t>Sl</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Slope</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Slope_Var</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4730,39 +4220,34 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Slope_Variance</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>Slope_Var</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Slope_Variance</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Slope_Var</t>
-        </is>
-      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>Sl_Var</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Slope_Variance</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Sort_Order</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4772,19 +4257,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>Sort_Order</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Sort_Order</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>Srt_Ord</t>
@@ -4793,18 +4278,13 @@
       <c r="G104" t="inlineStr">
         <is>
           <t>S_Ord</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Sort_Order</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Source</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4814,19 +4294,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>Srce</t>
@@ -4835,18 +4315,13 @@
       <c r="G105" t="inlineStr">
         <is>
           <t>Src</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Source</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Species_Code</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4856,19 +4331,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>Species_Code</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Species_Code</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>Species_Cd</t>
@@ -4877,18 +4352,13 @@
       <c r="G106" t="inlineStr">
         <is>
           <t>Sp_Cd</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Species_Code</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Species_ID</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4898,19 +4368,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>Species_ID</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Species_ID</t>
-        </is>
-      </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>Specs_ID</t>
@@ -4919,18 +4389,13 @@
       <c r="G107" t="inlineStr">
         <is>
           <t>Sp_ID</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Species_ID</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>SSMA_TimeStamp</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4940,39 +4405,34 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Sqlserver_management_TimeStamp</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>SqlSrvMngmt_TimeStamp</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>SSMA_TimeStamp</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Sqlserver_management_TimeStamp</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>SqlSrvMngmt_TimeStamp</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>SSMA_TimeStamp</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Sqlserver_management_TimeStamp</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Start_Date</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4982,19 +4442,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>Start_Date</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Start_Date</t>
-        </is>
-      </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>Strt_dt</t>
@@ -5003,18 +4463,13 @@
       <c r="G109" t="inlineStr">
         <is>
           <t>St_dt</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Start_Date</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Start_Time</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5024,19 +4479,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>Start_Time</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Start_Time</t>
-        </is>
-      </c>
       <c r="F110" t="inlineStr">
         <is>
           <t>Strt_tm</t>
@@ -5045,18 +4500,13 @@
       <c r="G110" t="inlineStr">
         <is>
           <t>St_tm</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Start_Time</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>State_Code</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5066,19 +4516,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>State_Code</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>State_Code</t>
-        </is>
-      </c>
       <c r="F111" t="inlineStr">
         <is>
           <t>State_Cd</t>
@@ -5087,18 +4537,13 @@
       <c r="G111" t="inlineStr">
         <is>
           <t>St_Cd</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>State_Code</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Station</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5108,19 +4553,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>Station</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Station</t>
-        </is>
-      </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>Stn</t>
@@ -5129,18 +4574,13 @@
       <c r="G112" t="inlineStr">
         <is>
           <t>St</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Station</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Station_ID</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5150,19 +4590,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>Station_ID</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Station_ID</t>
-        </is>
-      </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>Stn_ID</t>
@@ -5171,18 +4611,13 @@
       <c r="G113" t="inlineStr">
         <is>
           <t>St_ID</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Station_ID</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5192,19 +4627,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>Stat</t>
@@ -5213,18 +4648,13 @@
       <c r="G114" t="inlineStr">
         <is>
           <t>sts</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Stream</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5234,19 +4664,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
           <t>Stream</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Stream</t>
-        </is>
-      </c>
       <c r="F115" t="inlineStr">
         <is>
           <t>Strm</t>
@@ -5255,18 +4685,13 @@
       <c r="G115" t="inlineStr">
         <is>
           <t>str</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Stream</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>sysdiagrams</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5276,19 +4701,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t>sysdiagrams</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>sysdiagrams</t>
-        </is>
-      </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>SysDiag</t>
@@ -5297,18 +4722,13 @@
       <c r="G116" t="inlineStr">
         <is>
           <t>S_Diag</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>sysdiagrams</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>T&amp;E_Status</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5318,39 +4738,34 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>ThreatendedEndangered_Status</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Thrtn_Endng_Status</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>T&amp;E_Status</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>ThreatendedEndangered_Status</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Thrtn_Endng_Status</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>T&amp;E_Status</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>ThreatendedEndangered_Status</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Db_Meta</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5360,39 +4775,34 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Database_Metadata</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>tbl_Db_Meta</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Database_Metadata</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>tbl_Db_Meta</t>
-        </is>
-      </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>t_Db_Meta</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Database_Metadata</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Density</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5402,19 +4812,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>tbl_Density</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>tbl_Density</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>tbl_Dens</t>
@@ -5423,18 +4833,13 @@
       <c r="G119" t="inlineStr">
         <is>
           <t>T_Ds</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>tbl_Density</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Detections</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5444,39 +4849,34 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Detections</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>tbl_Detections</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Detections</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>tbl_Detections</t>
-        </is>
-      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>t_Det</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Detections</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Event_Details</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5486,39 +4886,34 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Event_Details</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>tbl_Event_Details</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Event_Details</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>tbl_Event_Details</t>
-        </is>
-      </c>
       <c r="G121" t="inlineStr">
         <is>
           <t>t_Ev_dt</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event_Details</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Events</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5528,39 +4923,34 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Events</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>tbl_Events</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Events</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>tbl_Events</t>
-        </is>
-      </c>
       <c r="G122" t="inlineStr">
         <is>
           <t>t_Ev</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Events</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Habitat</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5570,39 +4960,34 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>tbl_Habitat</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Habitats</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>tbl_Habitat</t>
-        </is>
-      </c>
       <c r="G123" t="inlineStr">
         <is>
           <t>t_Hab</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Habitats</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Locations</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5612,39 +4997,34 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Locations</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>tbl_Locations</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Locations</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>tbl_Locations</t>
-        </is>
-      </c>
       <c r="G124" t="inlineStr">
         <is>
           <t>t_locs</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Locations</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Observations</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5654,39 +5034,34 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Observations</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>tbl_Observations</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Observations</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>tbl_Observations</t>
-        </is>
-      </c>
       <c r="G125" t="inlineStr">
         <is>
           <t>t_Obs</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Observations</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Plot</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5696,39 +5071,34 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Plot</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
           <t>tbl_Plot</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Plot</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>tbl_Plot</t>
-        </is>
-      </c>
       <c r="G126" t="inlineStr">
         <is>
           <t>t_plt</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Plot</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Sites</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5738,39 +5108,34 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Sites</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>tbl_Sites</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Sites</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>tbl_Sites</t>
-        </is>
-      </c>
       <c r="G127" t="inlineStr">
         <is>
           <t>t_Sts</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Sites</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Stations</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5780,39 +5145,34 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Stations</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
           <t>tbl_Stations</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Stations</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>tbl_Stations</t>
-        </is>
-      </c>
       <c r="G128" t="inlineStr">
         <is>
           <t>t_Stns</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Stations</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Stations_Updates</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5822,39 +5182,34 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Stations_Updates</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
           <t>tbl_Stations_Updates</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Stations_Updates</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>tbl_Stations_Updates</t>
-        </is>
-      </c>
       <c r="G129" t="inlineStr">
         <is>
           <t>t_stns_upt</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Stations_Updates</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Stations_UTMs</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5864,39 +5219,34 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Stations_Location_UTMs</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
           <t>tbl_Stations_UTMs</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Stations_Location_UTMs</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>tbl_Stations_UTMs</t>
-        </is>
-      </c>
       <c r="G130" t="inlineStr">
         <is>
           <t>t_st_UTMs</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Stations_Location_UTMs</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tbl_Transect</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5906,39 +5256,34 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Transects</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>tbl_Transect</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Transects</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>tbl_Transect</t>
-        </is>
-      </c>
       <c r="G131" t="inlineStr">
         <is>
           <t>t_tran</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Transects</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tlu_Contacts</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5948,39 +5293,34 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Contacts_Lookup</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
           <t>tlu_Contacts</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Contacts_Lookup</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>tlu_Contacts</t>
-        </is>
-      </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>tlu_ctc</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Contacts_Lookup</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tlu_Enumerations</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5990,39 +5330,34 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Enumerations_Lookup</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>tlu_Enumerations</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Enumerations_Lookup</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>tlu_Enumerations</t>
-        </is>
-      </c>
       <c r="G133" t="inlineStr">
         <is>
           <t>tlu_enum</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Enumerations_Lookup</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>tlu_Species</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6032,39 +5367,34 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Species_Lookup</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>tlu_Species</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Species_Lookup</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>tlu_Species</t>
-        </is>
-      </c>
       <c r="G134" t="inlineStr">
         <is>
           <t>tlu_spc</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Species_Lookup</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Topo_Position</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6074,39 +5404,34 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Topographic_Position</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
           <t>Topo_Position</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Topographic_Position</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Topo_Position</t>
-        </is>
-      </c>
       <c r="G135" t="inlineStr">
         <is>
           <t>Top_Pos</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Topographic_Position</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Transect</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6116,19 +5441,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>Transect</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Transect</t>
-        </is>
-      </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>Trnsct</t>
@@ -6137,18 +5462,13 @@
       <c r="G136" t="inlineStr">
         <is>
           <t>Tr</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Transect</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Transect_ID</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6158,39 +5478,34 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
           <t>Transect_ID</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>Transect_ID</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Transect_ID</t>
-        </is>
-      </c>
       <c r="G137" t="inlineStr">
         <is>
           <t>Tr_ID</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Transect_ID</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Transect_Type</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6200,19 +5515,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
           <t>Transect_Type</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Transect_Type</t>
-        </is>
-      </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>Trnsct_typ</t>
@@ -6221,18 +5536,13 @@
       <c r="G138" t="inlineStr">
         <is>
           <t>Tr_tp</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Transect_Type</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>TSN</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6242,39 +5552,34 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Taxonomic_Serial_Number</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Taxon_Ser_Num</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
           <t>TSN</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Taxonomic_Serial_Number</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Taxon_Ser_Num</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>TSN</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Taxonomic_Serial_Number</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Two_meter</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6284,19 +5589,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
           <t>Two_meter</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Two_meter</t>
-        </is>
-      </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>Two_mtr</t>
@@ -6305,18 +5610,13 @@
       <c r="G140" t="inlineStr">
         <is>
           <t>Two_M</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Two_meter</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Understory_Comp</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6326,19 +5626,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t>Understory_Comp</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Understory_Comp</t>
-        </is>
-      </c>
       <c r="F141" t="inlineStr">
         <is>
           <t>Undrstry_Cmp</t>
@@ -6347,18 +5647,13 @@
       <c r="G141" t="inlineStr">
         <is>
           <t>US_Cmp</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Understory_Comp</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Unit_Code</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6368,19 +5663,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>Unit_Code</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Unit_Code</t>
-        </is>
-      </c>
       <c r="F142" t="inlineStr">
         <is>
           <t>Unit_Cd</t>
@@ -6389,18 +5684,13 @@
       <c r="G142" t="inlineStr">
         <is>
           <t>Unt_C</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Unit_Code</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Unpaved</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6410,19 +5700,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>Unpvd</t>
@@ -6431,18 +5721,13 @@
       <c r="G143" t="inlineStr">
         <is>
           <t>UnPv</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Update_By</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6452,19 +5737,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
           <t>Update_By</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Update_By</t>
-        </is>
-      </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>Updt_By</t>
@@ -6473,18 +5758,13 @@
       <c r="G144" t="inlineStr">
         <is>
           <t>U_By</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Update_By</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Update_Comments</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6494,19 +5774,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>Update_Comments</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Update_Comments</t>
-        </is>
-      </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>Updt_cmts</t>
@@ -6515,18 +5795,13 @@
       <c r="G145" t="inlineStr">
         <is>
           <t>U_cmt</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Update_Comments</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Update_Date</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6536,19 +5811,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
           <t>Update_Date</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Update_Date</t>
-        </is>
-      </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>Updt_dt</t>
@@ -6557,18 +5832,13 @@
       <c r="G146" t="inlineStr">
         <is>
           <t>U_dt</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Update_Date</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Update_Description</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6578,19 +5848,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
           <t>Update_Description</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Update_Description</t>
-        </is>
-      </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>Updt_Descr</t>
@@ -6599,18 +5869,13 @@
       <c r="G147" t="inlineStr">
         <is>
           <t>U_Desc</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Update_Description</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Update_ID</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6620,39 +5885,34 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>Update_ID</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>Update_ID</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Update_ID</t>
-        </is>
-      </c>
       <c r="G148" t="inlineStr">
         <is>
           <t>U_ID</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Update_ID</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Update_Notes</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6662,19 +5922,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
           <t>Update_Notes</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Update_Notes</t>
-        </is>
-      </c>
       <c r="F149" t="inlineStr">
         <is>
           <t>Updt_Notes</t>
@@ -6683,18 +5943,13 @@
       <c r="G149" t="inlineStr">
         <is>
           <t>U_Nt</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Update_Notes</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Updated_By</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6704,19 +5959,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
           <t>Updated_By</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Updated_By</t>
-        </is>
-      </c>
       <c r="F150" t="inlineStr">
         <is>
           <t>Updtd_by</t>
@@ -6725,18 +5980,13 @@
       <c r="G150" t="inlineStr">
         <is>
           <t>U_By</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Updated_By</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Updated_date</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6746,19 +5996,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
           <t>Updated_date</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Updated_date</t>
-        </is>
-      </c>
       <c r="F151" t="inlineStr">
         <is>
           <t>Updtd_dt</t>
@@ -6767,18 +6017,13 @@
       <c r="G151" t="inlineStr">
         <is>
           <t>U_dt</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Updated_date</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Updated_notes</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6788,19 +6033,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
           <t>Updated_notes</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Updated_notes</t>
-        </is>
-      </c>
       <c r="F152" t="inlineStr">
         <is>
           <t>Updtd_Nt</t>
@@ -6809,18 +6054,13 @@
       <c r="G152" t="inlineStr">
         <is>
           <t>U_nt</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Updated_notes</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>UTM_Zone</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6830,39 +6070,34 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Universal_Transverse_Mercator_Zone</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>UTM_Zone</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Universal_Transverse_Mercator_Zone</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>UTM_Zone</t>
-        </is>
-      </c>
       <c r="G153" t="inlineStr">
         <is>
           <t>UTM_Zn</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Universal_Transverse_Mercator_Zone</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Verified</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6872,19 +6107,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>Verified</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Verified</t>
-        </is>
-      </c>
       <c r="F154" t="inlineStr">
         <is>
           <t>Verfd</t>
@@ -6893,18 +6128,13 @@
       <c r="G154" t="inlineStr">
         <is>
           <t>Vfd</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Verified</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Verified_by</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6914,19 +6144,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
           <t>Verified_by</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Verified_by</t>
-        </is>
-      </c>
       <c r="F155" t="inlineStr">
         <is>
           <t>Verfd_by</t>
@@ -6935,18 +6165,13 @@
       <c r="G155" t="inlineStr">
         <is>
           <t>Vfd_by</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Verified_by</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Verified_date</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6956,19 +6181,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
           <t>Verified_date</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Verified_date</t>
-        </is>
-      </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>Verfd_dt</t>
@@ -6977,18 +6202,13 @@
       <c r="G156" t="inlineStr">
         <is>
           <t>Vfd_dt</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Verified_date</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>version</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6998,19 +6218,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
       <c r="F157" t="inlineStr">
         <is>
           <t>vers</t>
@@ -7019,18 +6239,13 @@
       <c r="G157" t="inlineStr">
         <is>
           <t>v</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>version</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7040,19 +6255,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
           <t>Wind</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
       <c r="F158" t="inlineStr">
         <is>
           <t>Wnd</t>
@@ -7061,18 +6276,13 @@
       <c r="G158" t="inlineStr">
         <is>
           <t>W</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Wind</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Work_Extension</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7082,19 +6292,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
           <t>Work_Extension</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Work_Extension</t>
-        </is>
-      </c>
       <c r="F159" t="inlineStr">
         <is>
           <t>Wrk_Extn</t>
@@ -7103,18 +6313,13 @@
       <c r="G159" t="inlineStr">
         <is>
           <t>W_Ext</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Work_Extension</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Work_Phone</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7124,19 +6329,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
           <t>Work_Phone</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Work_Phone</t>
-        </is>
-      </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>Work_Phn</t>
@@ -7145,18 +6350,13 @@
       <c r="G160" t="inlineStr">
         <is>
           <t>W_Phn</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Work_Phone</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>X_final</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7166,39 +6366,34 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>coordinate_X_final</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
           <t>X_final</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>coordinate_X_final</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>X_final</t>
-        </is>
-      </c>
       <c r="G161" t="inlineStr">
         <is>
           <t>X_fin</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>coordinate_X_final</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>X_orig</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7208,39 +6403,34 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>coordinate_X_original</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
           <t>X_orig</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>coordinate_X_original</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>X_orig</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>X_orig</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>coordinate_X_original</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>xref_Event_Contacts</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7250,39 +6440,34 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Event_Contacts_Crossreference</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>xref_Event_Contacts</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Event_Contacts_Crossreference</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>xref_Event_Contacts</t>
-        </is>
-      </c>
       <c r="G163" t="inlineStr">
         <is>
           <t>xref_ev_ctc</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Event_Contacts_Crossreference</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>xref_Species_Alternate_Names</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7292,39 +6477,34 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Species_Alternate_Name_Crossreference</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>xref_Species_Alternate_Names</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Species_Alternate_Name_Crossreference</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>xref_Species_Alternate_Names</t>
-        </is>
-      </c>
       <c r="G164" t="inlineStr">
         <is>
           <t>xref_spc_AltNm</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Species_Alternate_Name_Crossreference</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Y_final</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7334,39 +6514,34 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>coordinate_Y_final</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
           <t>Y_final</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>N2</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>coordinate_Y_final</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Y_final</t>
-        </is>
-      </c>
       <c r="G165" t="inlineStr">
         <is>
           <t>y_fin</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>coordinate_Y_final</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Y_orig</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7376,39 +6551,34 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>coordinate_Y_original</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
           <t>Y_orig</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>N3</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>coordinate_Y_original</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>Y_orig</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Y_orig</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>coordinate_Y_original</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PacificIslandLandbirds</t>
+          <t>Zip_Code</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7418,32 +6588,27 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>PacificIslandLandbirds</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
           <t>Zip_Code</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>Zip_Code</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Zip_Code</t>
-        </is>
-      </c>
       <c r="G167" t="inlineStr">
         <is>
           <t>Z_Cd</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Zip_Code</t>
         </is>
       </c>
     </row>
